--- a/KeySwitchManager/Sources/Infrastructure/Storage.Spreadsheet.ClosedXml/Template.xlsx
+++ b/KeySwitchManager/Sources/Infrastructure/Storage.Spreadsheet.ClosedXml/Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A5353-6D7F-463E-AF66-C88E879F2575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7459CB-BF13-604E-AEEB-9E1264FA5768}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="495" windowWidth="22575" windowHeight="13530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5020" yWindow="500" windowWidth="22580" windowHeight="13540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__TEMPLATE__" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="141">
   <si>
     <t>Articulation Type</t>
   </si>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t>Sample</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MIDI Channels</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1062,20 +1066,20 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="39.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="11" customWidth="1"/>
-    <col min="11" max="1024" width="9.875" style="4" customWidth="1"/>
-    <col min="1025" max="16384" width="8.875" style="4"/>
+    <col min="11" max="1024" width="9.83203125" style="4" customWidth="1"/>
+    <col min="1025" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
@@ -1249,23 +1253,26 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="3" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
     <col min="3" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="1027" width="9.875" style="4" customWidth="1"/>
-    <col min="1028" max="16384" width="8.875" style="4"/>
+    <col min="5" max="5" width="17.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="1027" width="9.83203125" style="4" customWidth="1"/>
+    <col min="1028" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="23.25" customHeight="1">
+    <row r="1" spans="2:8" ht="23.25" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1284,16 +1291,20 @@
       <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:7">
+      <c r="H1" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="17"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1312,8 +1323,11 @@
       <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1332,8 +1346,11 @@
       <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1350,8 +1367,11 @@
       <c r="G5" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1388,11 @@
       <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,8 +1406,11 @@
       <c r="G7" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1398,8 +1424,11 @@
       <c r="G8" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1442,11 @@
       <c r="G9" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1428,8 +1460,11 @@
       <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1443,8 +1478,11 @@
       <c r="G11" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1458,8 +1496,11 @@
       <c r="G12" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1473,8 +1514,11 @@
       <c r="G13" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1488,8 +1532,11 @@
       <c r="G14" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1503,8 +1550,11 @@
       <c r="G15" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1518,8 +1568,11 @@
       <c r="G16" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1533,8 +1586,11 @@
       <c r="G17" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1548,8 +1604,11 @@
       <c r="G18" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:8">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1577,7 +1636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:8">
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1590,7 +1649,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:8">
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1603,7 +1662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:8">
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1629,7 +1688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1642,7 +1701,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:8">
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1655,7 +1714,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:8">
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1668,7 +1727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:8">
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1681,7 +1740,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:8">
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1694,7 +1753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:8">
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1707,7 +1766,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:8">
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1720,7 +1779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:8">
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>

--- a/KeySwitchManager/Sources/Infrastructure/Storage.Spreadsheet.ClosedXml/Template.xlsx
+++ b/KeySwitchManager/Sources/Infrastructure/Storage.Spreadsheet.ClosedXml/Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7459CB-BF13-604E-AEEB-9E1264FA5768}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22BF069-F14F-9E45-B4D4-BB911413324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="500" windowWidth="22580" windowHeight="13540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__TEMPLATE__" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
   <si>
     <t>Articulation Type</t>
   </si>
@@ -454,6 +454,26 @@
   </si>
   <si>
     <t>MIDI Channels</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Developer Name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Product Name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Sanple</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Description</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1082,85 +1102,125 @@
     <col min="1025" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.25" customHeight="1">
+    <row r="1" spans="1:10">
       <c r="A1" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>139</v>
-      </c>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" hidden="1">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" hidden="1">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" hidden="1">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" hidden="1">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" hidden="1">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" hidden="1">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" hidden="1">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>

--- a/KeySwitchManager/Sources/Infrastructure/Storage.Spreadsheet.ClosedXml/Template.xlsx
+++ b/KeySwitchManager/Sources/Infrastructure/Storage.Spreadsheet.ClosedXml/Template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22BF069-F14F-9E45-B4D4-BB911413324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8D5BAE-A4B1-D14C-9284-583628E5A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,16 +1089,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="39.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="11" customWidth="1"/>
-    <col min="11" max="1024" width="9.83203125" style="4" customWidth="1"/>
+    <col min="2" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="10" width="13.83203125" style="11" customWidth="1"/>
+    <col min="11" max="26" width="13.83203125" style="4" customWidth="1"/>
+    <col min="27" max="1024" width="9.83203125" style="4" customWidth="1"/>
     <col min="1025" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
